--- a/StructureDefinition-lmdi-organization.xlsx
+++ b/StructureDefinition-lmdi-organization.xlsx
@@ -84,7 +84,9 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Organisasjoner i norsk helse- og omsorgstjeneste, som sykehus og sykehjem, og avdelinger/poster under disse.</t>
+    <t xml:space="preserve">Organisasjoner i norsk helse- og omsorgstjeneste, som post, avdeling, klinikk, sykehus og sykehjem. 
+Denne profilen av Organization benyttes for å beskrive helseinstitusjoner og skal representere organisasjonen på lavest mulig nivå i organisasjonshierarkiet (f.eks. en avdeling eller klinikk eller post).
+For organisasjonen som er del av en større organisasjon, skal dette angis ved hjelp av partOf-relasjonen. Alle “organisasjonshierarki” skal inkludere minst et organisasjonsnummer fra Enhetsregisteret (identifier:ENH) </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -472,13 +474,13 @@
 </t>
   </si>
   <si>
-    <t>Organisasjonsidentifikatorer (ENH/RESH)</t>
+    <t>ID fra Nasjonalt register for enheter i spesialisthelsetjenesten (RESH) eller Organisasjonsnummeret i Enhetsregister</t>
   </si>
   <si>
     <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
   </si>
   <si>
-    <t>Identifikatorer skal angis på laveste mulige organisatoriske nivå. For eksempel organisasjonsnummer for sykehjemmet fremfor kommunen der det finnes.</t>
+    <t>Der aktiviteten har skjedd.</t>
   </si>
   <si>
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
@@ -513,7 +515,7 @@
     <t>ENH</t>
   </si>
   <si>
-    <t>Organisasjonsnummer fra Enhetsregisteret</t>
+    <t>Organisasjonsnummer fra Enhetsregisteret (ENH)</t>
   </si>
   <si>
     <t>Identifikatorer skal angis på laveste relevante virksomhetsnivå i henhold til SSBs retningslinjer. For kommunale tjenester betyr dette på institusjonsnivå (f.eks sykehjem) der egen organisatorisk enhet er etablert, ikke på overordnet kommunenivå.</t>
@@ -764,7 +766,7 @@
     <t>RESH</t>
   </si>
   <si>
-    <t>ID fra Register for enheter i spesialisthelsetjenesten</t>
+    <t>ID fra Register for enheter i spesialisthelsetjenesten (RESH)</t>
   </si>
   <si>
     <t>Det nivået aktiviteten har skjedd på.</t>
@@ -873,7 +875,7 @@
     <t>Offisielt navn på organisasjonen</t>
   </si>
   <si>
-    <t>If the name of an organization changes, consider putting the old name in the alias column so that it can still be located through searches.</t>
+    <t>Kan være navn på post, avdelingsnavn, klinikknavn, sykehusnavn eller sykehjemsnavn</t>
   </si>
   <si>
     <t>Need to use the name as the label of the organization.</t>

--- a/StructureDefinition-lmdi-organization.xlsx
+++ b/StructureDefinition-lmdi-organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="471">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-27</t>
+    <t>2025-03-10</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -994,7 +994,7 @@
 </t>
   </si>
   <si>
-    <t>Bydel</t>
+    <t>Kodet verdi for bydel</t>
   </si>
   <si>
     <t>Information about Norwegian urban district (bydel)</t>
@@ -1152,7 +1152,7 @@
 </t>
   </si>
   <si>
-    <t>District name (aka county)</t>
+    <t>Kommune</t>
   </si>
   <si>
     <t>The name of the administrative area (county).</t>
@@ -1201,7 +1201,7 @@
 </t>
   </si>
   <si>
-    <t>Coded value for municipality/county Norwegian kommune</t>
+    <t>Kodet verdi for kommune</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1334,10 +1334,7 @@
 </t>
   </si>
   <si>
-    <t>Overordnet organisasjon</t>
-  </si>
-  <si>
-    <t>Organisasjonen som denne organisasjonen er en del av</t>
+    <t>Organisasjonen er del av (overordnet organisasjon)</t>
   </si>
   <si>
     <t>Need to be able to track the hierarchy of organizations within an organization.</t>
@@ -7257,7 +7254,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
@@ -7839,11 +7836,11 @@
         <v>423</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7910,7 +7907,7 @@
         <v>260</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>167</v>
@@ -7921,10 +7918,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7947,19 +7944,19 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -8008,7 +8005,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8026,7 +8023,7 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -8037,10 +8034,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8149,10 +8146,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8263,14 +8260,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8292,10 +8289,10 @@
         <v>133</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>136</v>
@@ -8350,7 +8347,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8379,10 +8376,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8408,14 +8405,14 @@
         <v>188</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8443,11 +8440,11 @@
         <v>193</v>
       </c>
       <c r="Y58" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="Z58" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="Z58" t="s" s="2">
-        <v>446</v>
-      </c>
       <c r="AA58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8464,7 +8461,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8482,7 +8479,7 @@
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8493,10 +8490,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8519,17 +8516,17 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8578,7 +8575,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8593,10 +8590,10 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
@@ -8607,10 +8604,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8636,14 +8633,14 @@
         <v>287</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8692,7 +8689,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8707,10 +8704,10 @@
         <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8721,10 +8718,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8750,14 +8747,14 @@
         <v>298</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -8806,7 +8803,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8821,10 +8818,10 @@
         <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8835,10 +8832,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8861,17 +8858,17 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>77</v>
@@ -8920,7 +8917,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
